--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="131" sheetId="1" r:id="rId1"/>
-    <sheet name="141" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,100 +24,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Alumno volcado 1</t>
-  </si>
-  <si>
-    <t>Alumno volcado 2</t>
-  </si>
-  <si>
-    <t>Alumno volcado 3</t>
-  </si>
-  <si>
-    <t>Alumno volcado 4</t>
-  </si>
-  <si>
-    <t>Alumno volcado 5</t>
-  </si>
-  <si>
-    <t>Alumno volcado 6</t>
-  </si>
-  <si>
-    <t>Alumno volcado 7</t>
-  </si>
-  <si>
-    <t>Alumno volcado 8</t>
-  </si>
-  <si>
-    <t>Alumno volcado 9</t>
-  </si>
-  <si>
-    <t>Alumno volcado 10</t>
-  </si>
-  <si>
-    <t>Alumno volcado 11</t>
-  </si>
-  <si>
-    <t>Alumno volcado 12</t>
-  </si>
-  <si>
-    <t>Alumno volcado 13</t>
-  </si>
-  <si>
-    <t>Alumno volcado 14</t>
-  </si>
-  <si>
-    <t>Alumno volcado 15</t>
-  </si>
-  <si>
-    <t>Alumno volcado 16</t>
-  </si>
-  <si>
-    <t>Alumno volcado 17</t>
-  </si>
-  <si>
-    <t>Alumno volcado 18</t>
-  </si>
-  <si>
-    <t>Alumno volcado 19</t>
-  </si>
-  <si>
-    <t>Alumno volcado 20</t>
-  </si>
-  <si>
-    <t>Alumno volcado 21</t>
-  </si>
-  <si>
-    <t>Alumno volcado 22</t>
-  </si>
-  <si>
-    <t>Alumno volcado 23</t>
-  </si>
-  <si>
-    <t>Alumno volcado 24</t>
-  </si>
-  <si>
-    <t>Alumno volcado 25</t>
-  </si>
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">CAVALIER PORRAS, Fabrizio Stephano  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORONDA CONTRERAS, Milenna Alessandra   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAPE HOLGUIN, Amir Alberto                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ HERRERA, Rafael Alejandro         </t>
+  </si>
+  <si>
+    <t>OCHOA SOYER, Milan Jadiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATAZCA PESANTES, Adriana Milette   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERICHE REA, Camila Valentina          </t>
+  </si>
+  <si>
+    <t>TUESTA SALVADOR, Fabio Alessandro</t>
+  </si>
+  <si>
+    <t>VALLADARES CHARAJA, Alejandro Gabriel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,7 +88,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,164 +369,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Documents\Talentos\2015\3 Secundaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="2460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">CAVALIER PORRAS, Fabrizio Stephano  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORONDA CONTRERAS, Milenna Alessandra   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAPE HOLGUIN, Amir Alberto                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ HERRERA, Rafael Alejandro         </t>
-  </si>
-  <si>
-    <t>OCHOA SOYER, Milan Jadiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATAZCA PESANTES, Adriana Milette   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERICHE REA, Camila Valentina          </t>
-  </si>
-  <si>
-    <t>TUESTA SALVADOR, Fabio Alessandro</t>
-  </si>
-  <si>
-    <t>VALLADARES CHARAJA, Alejandro Gabriel</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>ALVAREZ COSTILLA, Yeltsin Yosemir</t>
+  </si>
+  <si>
+    <t>ALVAREZ DEL ALCAZAR, Ximena Ananí</t>
+  </si>
+  <si>
+    <t>ARANA MEZA, Patricio Alfonso Jesús</t>
+  </si>
+  <si>
+    <t>CARDENAS IZAGUIRRE Paolo</t>
+  </si>
+  <si>
+    <t>COCA PIMENTEL Valeria</t>
+  </si>
+  <si>
+    <t>DIAZ GUTIERREZ Bruno</t>
+  </si>
+  <si>
+    <t>MALDONADO PUENTE Alejandra</t>
+  </si>
+  <si>
+    <t>MENDOZA VÁSQUEZ, Oriana Yaniré</t>
+  </si>
+  <si>
+    <t>RAFAJLOUSKY BURGOS Laura</t>
+  </si>
+  <si>
+    <t>SANCHEZ OLIVOS Diana</t>
+  </si>
+  <si>
+    <t>SOTO GARCIA Alejandra</t>
+  </si>
+  <si>
+    <t>TIMANA COMETTANT Ricardo</t>
+  </si>
+  <si>
+    <t>VALVERDE MUÑOZ Sabrina Tiare</t>
+  </si>
+  <si>
+    <t>VERGARA MACCHIAVELLO, Rodrigo M</t>
+  </si>
+  <si>
+    <t>YARLAQUE BENITES Katherine</t>
   </si>
 </sst>
 </file>
@@ -86,9 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,61 +386,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Documents\Talentos\2015\3 Secundaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\imp students\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8880" windowHeight="2460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,51 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ALVAREZ COSTILLA, Yeltsin Yosemir</t>
-  </si>
-  <si>
-    <t>ALVAREZ DEL ALCAZAR, Ximena Ananí</t>
-  </si>
-  <si>
-    <t>ARANA MEZA, Patricio Alfonso Jesús</t>
-  </si>
-  <si>
-    <t>CARDENAS IZAGUIRRE Paolo</t>
-  </si>
-  <si>
-    <t>COCA PIMENTEL Valeria</t>
-  </si>
-  <si>
-    <t>DIAZ GUTIERREZ Bruno</t>
-  </si>
-  <si>
-    <t>MALDONADO PUENTE Alejandra</t>
-  </si>
-  <si>
-    <t>MENDOZA VÁSQUEZ, Oriana Yaniré</t>
-  </si>
-  <si>
-    <t>RAFAJLOUSKY BURGOS Laura</t>
-  </si>
-  <si>
-    <t>SANCHEZ OLIVOS Diana</t>
-  </si>
-  <si>
-    <t>SOTO GARCIA Alejandra</t>
-  </si>
-  <si>
-    <t>TIMANA COMETTANT Ricardo</t>
-  </si>
-  <si>
-    <t>VALVERDE MUÑOZ Sabrina Tiare</t>
-  </si>
-  <si>
-    <t>VERGARA MACCHIAVELLO, Rodrigo M</t>
-  </si>
-  <si>
-    <t>YARLAQUE BENITES Katherine</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">CAVALIER PORRAS, Fabrizio Stephano  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORONDA CONTRERAS, Milenna Alessandra   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAPE HOLGUIN, Amir Alberto                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOPEZ HERRERA, Rafael Alejandro         </t>
+  </si>
+  <si>
+    <t>OCHOA SOYER, Milan Jadiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATAZCA PESANTES, Adriana Milette   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERICHE REA, Camila Valentina          </t>
+  </si>
+  <si>
+    <t>TUESTA SALVADOR, Fabio Alessandro</t>
   </si>
 </sst>
 </file>
@@ -386,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,42 +413,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/excel.xlsx
+++ b/public/excel.xlsx
@@ -1,60 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\imp students\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t xml:space="preserve">CAVALIER PORRAS, Fabrizio Stephano  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORONDA CONTRERAS, Milenna Alessandra   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JUAPE HOLGUIN, Amir Alberto                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOPEZ HERRERA, Rafael Alejandro         </t>
-  </si>
-  <si>
-    <t>OCHOA SOYER, Milan Jadiel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PATAZCA PESANTES, Adriana Milette   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERICHE REA, Camila Valentina          </t>
-  </si>
-  <si>
-    <t>TUESTA SALVADOR, Fabio Alessandro</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">ALOR CABRERA, Fabrizio Mateo  </t>
+  </si>
+  <si>
+    <t>ALVARADO NUÑEZ, Mariano Salvador</t>
+  </si>
+  <si>
+    <t>ANICAMA ZEA Adriana Alesandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARDILES PINEDO, Rafael Stefano     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELTRAN SIESQUEN, Alondra Briana         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAVO JESÚS, Alison   </t>
+  </si>
+  <si>
+    <t>CARRERA LOAYZA, Marcelo Joaquin</t>
+  </si>
+  <si>
+    <t>ECOS ARIAS, Shiara Luciana</t>
+  </si>
+  <si>
+    <t>ESPINOZA HINOSTROZA, Yelitza Kimberly</t>
+  </si>
+  <si>
+    <t>ESPINOZA VALLADARES Adriana Consuelo</t>
+  </si>
+  <si>
+    <t>FIESTAS CIEZA, Carlos Felipe</t>
+  </si>
+  <si>
+    <t>GONZALES CORONEL, Karla Cristina Elizabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUERTA HUACAUSI, Victor Sebastian          </t>
+  </si>
+  <si>
+    <t>LOPEZ HERRERA, Gabriel Eduardo</t>
+  </si>
+  <si>
+    <t>MARCHAN RUMICHE, Adrianno Nexon</t>
+  </si>
+  <si>
+    <t>OLIVERA GARCÍA, Rihanna Alejandra</t>
+  </si>
+  <si>
+    <t>RIVAS ARIAS, Ralph Hassan</t>
+  </si>
+  <si>
+    <t>ROGGERO MEDINA, Valentina Nicoll</t>
+  </si>
+  <si>
+    <t>ROJAS FUNES, Arifh Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROMERO RAMOS, Angelo Rodrigo         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILVA LÓPEZ, Antonella        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUAREZ DURAND, Sophia Orlanda    </t>
+  </si>
+  <si>
+    <t>VALLEJO SAENZ, Brianna Namibia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +102,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -79,12 +144,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,9 +267,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -113,39 +283,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,197 +394,427 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>